--- a/fcst_results/with_outlier_detection_series_HOU-Int_results.xlsx
+++ b/fcst_results/with_outlier_detection_series_HOU-Int_results.xlsx
@@ -469,13 +469,13 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>27448.35107259893</v>
+        <v>28815.03994740121</v>
       </c>
       <c r="C2" t="n">
         <v>19528.73090641369</v>
       </c>
       <c r="D2" t="n">
-        <v>26788.38272541682</v>
+        <v>28041.18086065225</v>
       </c>
     </row>
     <row r="3">
@@ -483,13 +483,13 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>28760.64103819128</v>
+        <v>32357.95701160237</v>
       </c>
       <c r="C3" t="n">
         <v>23129.5122748075</v>
       </c>
       <c r="D3" t="n">
-        <v>28291.3803079093</v>
+        <v>31588.9199502028</v>
       </c>
     </row>
     <row r="4">
@@ -497,13 +497,13 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>33616.16544799302</v>
+        <v>36754.26507941385</v>
       </c>
       <c r="C4" t="n">
         <v>28141.42346625876</v>
       </c>
       <c r="D4" t="n">
-        <v>33159.93694951516</v>
+        <v>36036.52827831759</v>
       </c>
     </row>
     <row r="5">
@@ -511,13 +511,13 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>27113.7284304881</v>
+        <v>32090.68528514105</v>
       </c>
       <c r="C5" t="n">
         <v>19907.21823224476</v>
       </c>
       <c r="D5" t="n">
-        <v>26513.18591396782</v>
+        <v>31075.39636406636</v>
       </c>
     </row>
     <row r="6">
@@ -525,13 +525,13 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>24378.62676467282</v>
+        <v>29129.60132644518</v>
       </c>
       <c r="C6" t="n">
         <v>17204.3047635316</v>
       </c>
       <c r="D6" t="n">
-        <v>23780.76659791105</v>
+        <v>28135.82661286904</v>
       </c>
     </row>
     <row r="7">
@@ -539,13 +539,13 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>36268.15957400724</v>
+        <v>34725.37679319532</v>
       </c>
       <c r="C7" t="n">
         <v>22264.59026738384</v>
       </c>
       <c r="D7" t="n">
-        <v>35101.19546512196</v>
+        <v>33686.97791604436</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>38478.85277175085</v>
+        <v>27128.17392221135</v>
       </c>
       <c r="C8" t="n">
         <v>14683.00488414276</v>
       </c>
       <c r="D8" t="n">
-        <v>36495.86544778351</v>
+        <v>26091.0765023723</v>
       </c>
     </row>
     <row r="9">
@@ -567,13 +567,13 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>45643.273945357</v>
+        <v>31201.48311182625</v>
       </c>
       <c r="C9" t="n">
         <v>18388.23141479537</v>
       </c>
       <c r="D9" t="n">
-        <v>43372.02040114353</v>
+        <v>30133.71213707367</v>
       </c>
     </row>
     <row r="10">
@@ -581,13 +581,13 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>52521.06460983431</v>
+        <v>35960.64707721958</v>
       </c>
       <c r="C10" t="n">
         <v>24411.43665927211</v>
       </c>
       <c r="D10" t="n">
-        <v>50178.59561395412</v>
+        <v>34998.21287572395</v>
       </c>
     </row>
     <row r="11">
@@ -595,13 +595,13 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>55100.67391466039</v>
+        <v>40134.12465603882</v>
       </c>
       <c r="C11" t="n">
         <v>28095.39572557634</v>
       </c>
       <c r="D11" t="n">
-        <v>52850.23406557005</v>
+        <v>39130.89724516695</v>
       </c>
     </row>
     <row r="12">
@@ -609,13 +609,13 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>47432.25152061765</v>
+        <v>33211.69411045477</v>
       </c>
       <c r="C12" t="n">
         <v>18353.19117831578</v>
       </c>
       <c r="D12" t="n">
-        <v>45008.9964920925</v>
+        <v>31973.48553277652</v>
       </c>
     </row>
     <row r="13">
@@ -623,13 +623,13 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>39124.34702996398</v>
+        <v>27181.36806664121</v>
       </c>
       <c r="C13" t="n">
         <v>10506.09552529524</v>
       </c>
       <c r="D13" t="n">
-        <v>36739.49273790825</v>
+        <v>25791.76202152905</v>
       </c>
     </row>
     <row r="14">
@@ -637,13 +637,13 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>42131.6981025629</v>
+        <v>31555.40801404243</v>
       </c>
       <c r="C14" t="n">
         <v>15637.36120685313</v>
       </c>
       <c r="D14" t="n">
-        <v>39923.83669458709</v>
+        <v>30228.90411344332</v>
       </c>
     </row>
     <row r="15">
@@ -651,13 +651,13 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>43443.98806815525</v>
+        <v>35098.32507824359</v>
       </c>
       <c r="C15" t="n">
         <v>21822.97404463966</v>
       </c>
       <c r="D15" t="n">
-        <v>41642.23689952896</v>
+        <v>33992.04582544326</v>
       </c>
     </row>
     <row r="16">
@@ -665,13 +665,13 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>48299.512477957</v>
+        <v>39494.63314605506</v>
       </c>
       <c r="C16" t="n">
         <v>26784.80634910569</v>
       </c>
       <c r="D16" t="n">
-        <v>46506.62030055272</v>
+        <v>38435.48091297595</v>
       </c>
     </row>
     <row r="17">
@@ -679,13 +679,13 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>41797.07546045207</v>
+        <v>34831.05335178227</v>
       </c>
       <c r="C17" t="n">
         <v>14879.81879972362</v>
       </c>
       <c r="D17" t="n">
-        <v>39553.9707387247</v>
+        <v>33168.45047244405</v>
       </c>
     </row>
     <row r="18">
@@ -693,13 +693,13 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>39061.97379463679</v>
+        <v>31869.96939308639</v>
       </c>
       <c r="C18" t="n">
         <v>11361.82956669415</v>
       </c>
       <c r="D18" t="n">
-        <v>36753.62844230823</v>
+        <v>30160.95774088704</v>
       </c>
     </row>
     <row r="19">
@@ -707,13 +707,13 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>50951.5066039712</v>
+        <v>37465.74485983654</v>
       </c>
       <c r="C19" t="n">
         <v>19550.02222848466</v>
       </c>
       <c r="D19" t="n">
-        <v>48334.71623934732</v>
+        <v>35972.76797389054</v>
       </c>
     </row>
     <row r="20">
@@ -721,13 +721,13 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>53162.19980171481</v>
+        <v>29868.54198885257</v>
       </c>
       <c r="C20" t="n">
         <v>11451.98723247558</v>
       </c>
       <c r="D20" t="n">
-        <v>49686.3487542782</v>
+        <v>28333.82909248782</v>
       </c>
     </row>
     <row r="21">
@@ -735,13 +735,13 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>60326.62097532096</v>
+        <v>33941.85117846746</v>
       </c>
       <c r="C21" t="n">
         <v>14844.27278358027</v>
       </c>
       <c r="D21" t="n">
-        <v>56536.4252926759</v>
+        <v>32350.38631222686</v>
       </c>
     </row>
     <row r="22">
@@ -749,13 +749,13 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>67204.41163979826</v>
+        <v>38701.01514386079</v>
       </c>
       <c r="C22" t="n">
         <v>21971.3977966571</v>
       </c>
       <c r="D22" t="n">
-        <v>63434.9938195365</v>
+        <v>37306.88036492714</v>
       </c>
     </row>
     <row r="23">
@@ -763,13 +763,13 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>69784.02094462435</v>
+        <v>42874.49272268004</v>
       </c>
       <c r="C23" t="n">
         <v>25009.29998463889</v>
       </c>
       <c r="D23" t="n">
-        <v>66052.79419795889</v>
+        <v>41385.7266611766</v>
       </c>
     </row>
     <row r="24">
@@ -777,13 +777,13 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>62115.59855058161</v>
+        <v>35952.06217709598</v>
       </c>
       <c r="C24" t="n">
         <v>13950.16181842678</v>
       </c>
       <c r="D24" t="n">
-        <v>58101.81215623538</v>
+        <v>34118.57048054021</v>
       </c>
     </row>
     <row r="25">
@@ -791,13 +791,13 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>53807.69405992794</v>
+        <v>29921.73613328243</v>
       </c>
       <c r="C25" t="n">
         <v>4576.750793451747</v>
       </c>
       <c r="D25" t="n">
-        <v>49705.11545438826</v>
+        <v>27809.65402162987</v>
       </c>
     </row>
     <row r="26">
@@ -805,13 +805,13 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>56815.04513252686</v>
+        <v>34295.77608068364</v>
       </c>
       <c r="C26" t="n">
         <v>11826.7542602226</v>
       </c>
       <c r="D26" t="n">
-        <v>53066.02089316817</v>
+        <v>32423.35759564522</v>
       </c>
     </row>
     <row r="27">
@@ -819,13 +819,13 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>58127.33509811921</v>
+        <v>37838.6931448848</v>
       </c>
       <c r="C27" t="n">
         <v>20557.20605379177</v>
       </c>
       <c r="D27" t="n">
-        <v>54996.49101109192</v>
+        <v>36398.56922062704</v>
       </c>
     </row>
     <row r="28">
@@ -833,13 +833,13 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>62982.85950792096</v>
+        <v>42235.00121269628</v>
       </c>
       <c r="C28" t="n">
         <v>25360.2114033258</v>
       </c>
       <c r="D28" t="n">
-        <v>59847.63883253802</v>
+        <v>40828.76872858206</v>
       </c>
     </row>
     <row r="29">
@@ -847,13 +847,13 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>56480.42249041603</v>
+        <v>37571.42141842348</v>
       </c>
       <c r="C29" t="n">
         <v>9777.931940826074</v>
       </c>
       <c r="D29" t="n">
-        <v>52588.5482779502</v>
+        <v>35255.29729529037</v>
       </c>
     </row>
     <row r="30">
@@ -861,13 +861,13 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>53745.32082460075</v>
+        <v>34610.33745972761</v>
       </c>
       <c r="C30" t="n">
         <v>5532.152051150172</v>
       </c>
       <c r="D30" t="n">
-        <v>49727.55676014653</v>
+        <v>32187.15534234615</v>
       </c>
     </row>
     <row r="31">
@@ -875,13 +875,13 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>65634.85363393516</v>
+        <v>40206.11292647775</v>
       </c>
       <c r="C31" t="n">
         <v>13522.3083847117</v>
       </c>
       <c r="D31" t="n">
-        <v>61292.1415298332</v>
+        <v>37982.46254799724</v>
       </c>
     </row>
     <row r="32">
@@ -889,13 +889,13 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>67845.54683167877</v>
+        <v>32608.91005549378</v>
       </c>
       <c r="C32" t="n">
         <v>6891.437929714051</v>
       </c>
       <c r="D32" t="n">
-        <v>62766.03775651504</v>
+        <v>30465.78737834547</v>
       </c>
     </row>
     <row r="33">
@@ -903,13 +903,13 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>75009.96800528493</v>
+        <v>36682.21924510867</v>
       </c>
       <c r="C33" t="n">
         <v>11225.52198028604</v>
       </c>
       <c r="D33" t="n">
-        <v>69694.59750320169</v>
+        <v>34560.82780637345</v>
       </c>
     </row>
     <row r="34">
@@ -917,13 +917,13 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>81887.75866976223</v>
+        <v>41441.383210502</v>
       </c>
       <c r="C34" t="n">
         <v>14991.45784199077</v>
       </c>
       <c r="D34" t="n">
-        <v>76313.06693411461</v>
+        <v>39237.22276312606</v>
       </c>
     </row>
     <row r="35">
@@ -931,13 +931,13 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>84467.3679745883</v>
+        <v>45614.86078932125</v>
       </c>
       <c r="C35" t="n">
         <v>19839.62288491949</v>
       </c>
       <c r="D35" t="n">
-        <v>79081.72255044922</v>
+        <v>43466.92429728776</v>
       </c>
     </row>
     <row r="36">
@@ -945,13 +945,13 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>76798.94558054558</v>
+        <v>38692.43024373719</v>
       </c>
       <c r="C36" t="n">
         <v>12731.61582632364</v>
       </c>
       <c r="D36" t="n">
-        <v>71460.00143436041</v>
+        <v>36529.02904228606</v>
       </c>
     </row>
     <row r="37">
@@ -959,13 +959,13 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>68491.04108989189</v>
+        <v>32662.10419992364</v>
       </c>
       <c r="C37" t="n">
         <v>8127.890938160099</v>
       </c>
       <c r="D37" t="n">
-        <v>63460.77857724758</v>
+        <v>30617.58642811001</v>
       </c>
     </row>
     <row r="38">
@@ -973,13 +973,13 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>71498.39216249081</v>
+        <v>37036.14414732485</v>
       </c>
       <c r="C38" t="n">
         <v>9212.158812772206</v>
       </c>
       <c r="D38" t="n">
-        <v>66307.87271668091</v>
+        <v>34717.4787027788</v>
       </c>
     </row>
     <row r="39">
@@ -987,13 +987,13 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>72810.68212808316</v>
+        <v>40579.06121152601</v>
       </c>
       <c r="C39" t="n">
         <v>10191.64995864061</v>
       </c>
       <c r="D39" t="n">
-        <v>67592.42944729628</v>
+        <v>38046.77694045222</v>
       </c>
     </row>
   </sheetData>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['AO2020Mar', 'LS2020Apr']</t>
+          <t>['AO2020Mar']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1245,19 +1245,19 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>12433.52411676511</v>
+        <v>15954.04767759872</v>
       </c>
       <c r="S2" t="n">
-        <v>6524.865336014595</v>
+        <v>7088.888399482897</v>
       </c>
       <c r="T2" t="n">
-        <v>231.6207517754543</v>
+        <v>382.9707512219367</v>
       </c>
       <c r="U2" t="n">
-        <v>4412.621872446834</v>
+        <v>5015.604314154051</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7291931699916766</v>
+        <v>0.6803514149654071</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -1313,19 +1313,19 @@
         <v>20</v>
       </c>
       <c r="K3" t="n">
-        <v>16438.82666980867</v>
+        <v>16438.82663702788</v>
       </c>
       <c r="L3" t="n">
-        <v>4090.183999385802</v>
+        <v>4090.183979817516</v>
       </c>
       <c r="M3" t="n">
-        <v>15000.37994833843</v>
+        <v>15000.37992256479</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.7829078707619848</v>
+        <v>-0.782907863651364</v>
       </c>
       <c r="O3" t="n">
-        <v>8561.051675403263</v>
+        <v>8561.051449335861</v>
       </c>
       <c r="P3" t="n">
         <v>24441</v>
@@ -1334,19 +1334,19 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>10598.51942525561</v>
+        <v>15217.32741310358</v>
       </c>
       <c r="S3" t="n">
-        <v>5958.980152927585</v>
+        <v>6568.608932987292</v>
       </c>
       <c r="T3" t="n">
-        <v>252.9128412918091</v>
+        <v>442.8064110854091</v>
       </c>
       <c r="U3" t="n">
-        <v>4121.942264009839</v>
+        <v>4715.239084869962</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7741290462795967</v>
+        <v>0.7255499457890835</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -1363,16 +1363,16 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>16438.82666980867</v>
+        <v>16438.82663702788</v>
       </c>
       <c r="AD3" t="n">
-        <v>4090.183999385802</v>
+        <v>4090.183979817516</v>
       </c>
       <c r="AE3" t="n">
-        <v>15000.37994833843</v>
+        <v>15000.37992256479</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.7829078707619848</v>
+        <v>-0.782907863651364</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['AO2020Mar', 'LS2020Apr']</t>
+          <t>['AO2020Mar']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1416,19 +1416,19 @@
         <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>17141.70603782276</v>
+        <v>17141.7053606849</v>
       </c>
       <c r="L4" t="n">
-        <v>4809.862644279091</v>
+        <v>4809.862409459658</v>
       </c>
       <c r="M4" t="n">
-        <v>14689.54850456249</v>
+        <v>14689.5481952789</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.9386319050643144</v>
+        <v>-0.9386317519032419</v>
       </c>
       <c r="O4" t="n">
-        <v>12264.18868700061</v>
+        <v>12264.18597419178</v>
       </c>
       <c r="P4" t="n">
         <v>24441</v>
@@ -1437,7 +1437,7 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>19963.85685255242</v>
+        <v>22761.86366997763</v>
       </c>
       <c r="S4" t="n">
         <v>10099.3278885907</v>
@@ -1458,16 +1458,16 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>17141.70603782276</v>
+        <v>17141.7053606849</v>
       </c>
       <c r="AD4" t="n">
-        <v>4809.862644279091</v>
+        <v>4809.862409459658</v>
       </c>
       <c r="AE4" t="n">
-        <v>14689.54850456249</v>
+        <v>14689.5481952789</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.9386319050643144</v>
+        <v>-0.9386317519032419</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>44470</v>
       </c>
       <c r="B71" t="n">
-        <v>27448.35107259893</v>
+        <v>28815.03994740121</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44501</v>
       </c>
       <c r="B72" t="n">
-        <v>28760.64103819128</v>
+        <v>32357.95701160237</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44531</v>
       </c>
       <c r="B73" t="n">
-        <v>33616.16544799302</v>
+        <v>36754.26507941385</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>44562</v>
       </c>
       <c r="B74" t="n">
-        <v>27113.7284304881</v>
+        <v>32090.68528514105</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44593</v>
       </c>
       <c r="B75" t="n">
-        <v>24378.62676467282</v>
+        <v>29129.60132644518</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>44621</v>
       </c>
       <c r="B76" t="n">
-        <v>36268.15957400724</v>
+        <v>34725.37679319532</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>44652</v>
       </c>
       <c r="B77" t="n">
-        <v>38478.85277175085</v>
+        <v>27128.17392221135</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>44682</v>
       </c>
       <c r="B78" t="n">
-        <v>45643.273945357</v>
+        <v>31201.48311182625</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>44713</v>
       </c>
       <c r="B79" t="n">
-        <v>52521.06460983431</v>
+        <v>35960.64707721958</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44743</v>
       </c>
       <c r="B80" t="n">
-        <v>55100.67391466039</v>
+        <v>40134.12465603882</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>44774</v>
       </c>
       <c r="B81" t="n">
-        <v>47432.25152061765</v>
+        <v>33211.69411045477</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>44805</v>
       </c>
       <c r="B82" t="n">
-        <v>39124.34702996398</v>
+        <v>27181.36806664121</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>44835</v>
       </c>
       <c r="B83" t="n">
-        <v>42131.6981025629</v>
+        <v>31555.40801404243</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44866</v>
       </c>
       <c r="B84" t="n">
-        <v>43443.98806815525</v>
+        <v>35098.32507824359</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44896</v>
       </c>
       <c r="B85" t="n">
-        <v>48299.512477957</v>
+        <v>39494.63314605506</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44927</v>
       </c>
       <c r="B86" t="n">
-        <v>41797.07546045207</v>
+        <v>34831.05335178227</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44958</v>
       </c>
       <c r="B87" t="n">
-        <v>39061.97379463679</v>
+        <v>31869.96939308639</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>44986</v>
       </c>
       <c r="B88" t="n">
-        <v>50951.5066039712</v>
+        <v>37465.74485983654</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>45017</v>
       </c>
       <c r="B89" t="n">
-        <v>53162.19980171481</v>
+        <v>29868.54198885257</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>45047</v>
       </c>
       <c r="B90" t="n">
-        <v>60326.62097532096</v>
+        <v>33941.85117846746</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>45078</v>
       </c>
       <c r="B91" t="n">
-        <v>67204.41163979826</v>
+        <v>38701.01514386079</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>45108</v>
       </c>
       <c r="B92" t="n">
-        <v>69784.02094462435</v>
+        <v>42874.49272268004</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>45139</v>
       </c>
       <c r="B93" t="n">
-        <v>62115.59855058161</v>
+        <v>35952.06217709598</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>45170</v>
       </c>
       <c r="B94" t="n">
-        <v>53807.69405992794</v>
+        <v>29921.73613328243</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>45200</v>
       </c>
       <c r="B95" t="n">
-        <v>56815.04513252686</v>
+        <v>34295.77608068364</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>45231</v>
       </c>
       <c r="B96" t="n">
-        <v>58127.33509811921</v>
+        <v>37838.6931448848</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>45261</v>
       </c>
       <c r="B97" t="n">
-        <v>62982.85950792096</v>
+        <v>42235.00121269628</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>45292</v>
       </c>
       <c r="B98" t="n">
-        <v>56480.42249041603</v>
+        <v>37571.42141842348</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>45323</v>
       </c>
       <c r="B99" t="n">
-        <v>53745.32082460075</v>
+        <v>34610.33745972761</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45352</v>
       </c>
       <c r="B100" t="n">
-        <v>65634.85363393516</v>
+        <v>40206.11292647775</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>45383</v>
       </c>
       <c r="B101" t="n">
-        <v>67845.54683167877</v>
+        <v>32608.91005549378</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>45413</v>
       </c>
       <c r="B102" t="n">
-        <v>75009.96800528493</v>
+        <v>36682.21924510867</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45444</v>
       </c>
       <c r="B103" t="n">
-        <v>81887.75866976223</v>
+        <v>41441.383210502</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>45474</v>
       </c>
       <c r="B104" t="n">
-        <v>84467.3679745883</v>
+        <v>45614.86078932125</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45505</v>
       </c>
       <c r="B105" t="n">
-        <v>76798.94558054558</v>
+        <v>38692.43024373719</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>45536</v>
       </c>
       <c r="B106" t="n">
-        <v>68491.04108989189</v>
+        <v>32662.10419992364</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>45566</v>
       </c>
       <c r="B107" t="n">
-        <v>71498.39216249081</v>
+        <v>37036.14414732485</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>45597</v>
       </c>
       <c r="B108" t="n">
-        <v>72810.68212808316</v>
+        <v>40579.06121152601</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2957,10 +2957,10 @@
         <v>27030.75485166851</v>
       </c>
       <c r="D2" t="n">
-        <v>26914.58783624501</v>
+        <v>26914.5877050517</v>
       </c>
       <c r="E2" t="n">
-        <v>25636.75066658651</v>
+        <v>25636.7490922668</v>
       </c>
     </row>
     <row r="3">
@@ -2974,10 +2974,10 @@
         <v>36911.28760734187</v>
       </c>
       <c r="D3" t="n">
-        <v>36515.52441243213</v>
+        <v>36515.52428697653</v>
       </c>
       <c r="E3" t="n">
-        <v>32162.12926842506</v>
+        <v>32162.12776295788</v>
       </c>
     </row>
     <row r="4">
@@ -2991,10 +2991,10 @@
         <v>23449.95451410332</v>
       </c>
       <c r="D4" t="n">
-        <v>23899.09571999888</v>
+        <v>23899.09559089612</v>
       </c>
       <c r="E4" t="n">
-        <v>28839.64898485009</v>
+        <v>28839.64743561699</v>
       </c>
     </row>
     <row r="5">
@@ -3008,10 +3008,10 @@
         <v>25985.32039589823</v>
       </c>
       <c r="D5" t="n">
-        <v>26477.98646358358</v>
+        <v>26477.98633266465</v>
       </c>
       <c r="E5" t="n">
-        <v>31897.31320812254</v>
+        <v>31897.31163709534</v>
       </c>
     </row>
     <row r="6">
@@ -3025,10 +3025,10 @@
         <v>31049.78982627104</v>
       </c>
       <c r="D6" t="n">
-        <v>31416.47627255988</v>
+        <v>31416.47614129055</v>
       </c>
       <c r="E6" t="n">
-        <v>35450.02718173711</v>
+        <v>35450.02560650513</v>
       </c>
     </row>
     <row r="7">
@@ -3042,10 +3042,10 @@
         <v>33100.84343347824</v>
       </c>
       <c r="D7" t="n">
-        <v>33487.18602617476</v>
+        <v>33487.18589322528</v>
       </c>
       <c r="E7" t="n">
-        <v>37736.95454583662</v>
+        <v>37736.95295044277</v>
       </c>
     </row>
     <row r="8">
@@ -3059,10 +3059,10 @@
         <v>24012.11030894395</v>
       </c>
       <c r="D8" t="n">
-        <v>24231.17227155272</v>
+        <v>24231.17213560314</v>
       </c>
       <c r="E8" t="n">
-        <v>26640.85386024922</v>
+        <v>26640.85222885423</v>
       </c>
     </row>
     <row r="9">
@@ -3076,10 +3076,10 @@
         <v>16089.95222756954</v>
       </c>
       <c r="D9" t="n">
-        <v>16449.51007192588</v>
+        <v>16449.50993192414</v>
       </c>
       <c r="E9" t="n">
-        <v>20404.64635984569</v>
+        <v>20404.64467982471</v>
       </c>
     </row>
     <row r="10">
@@ -3093,10 +3093,10 @@
         <v>22019.41356538294</v>
       </c>
       <c r="D10" t="n">
-        <v>22268.03506673695</v>
+        <v>22268.03491998932</v>
       </c>
       <c r="E10" t="n">
-        <v>25002.8715816311</v>
+        <v>25002.86982065958</v>
       </c>
     </row>
     <row r="11">
@@ -3110,10 +3110,10 @@
         <v>29245.17185939339</v>
       </c>
       <c r="D11" t="n">
-        <v>29066.35825351769</v>
+        <v>29066.3580977069</v>
       </c>
       <c r="E11" t="n">
-        <v>27099.40858888492</v>
+        <v>27099.40671915542</v>
       </c>
     </row>
     <row r="12">
@@ -3127,10 +3127,10 @@
         <v>31762.93829269388</v>
       </c>
       <c r="D12" t="n">
-        <v>31790.16084646314</v>
+        <v>31790.16067984895</v>
       </c>
       <c r="E12" t="n">
-        <v>32089.60893792493</v>
+        <v>32089.60693855475</v>
       </c>
     </row>
     <row r="13">
@@ -3144,10 +3144,10 @@
         <v>26423.45062859761</v>
       </c>
       <c r="D13" t="n">
-        <v>26354.79851611322</v>
+        <v>26354.79834348613</v>
       </c>
       <c r="E13" t="n">
-        <v>25599.62527878498</v>
+        <v>25599.62320725996</v>
       </c>
     </row>
     <row r="14">
@@ -3161,10 +3161,10 @@
         <v>19165.20548026611</v>
       </c>
       <c r="D14" t="n">
-        <v>19330.03568017406</v>
+        <v>19330.03549841272</v>
       </c>
       <c r="E14" t="n">
-        <v>21143.16787916162</v>
+        <v>21143.16569802548</v>
       </c>
     </row>
     <row r="15">
@@ -3178,10 +3178,10 @@
         <v>29045.73823593947</v>
       </c>
       <c r="D15" t="n">
-        <v>28837.61443948765</v>
+        <v>28837.61423325785</v>
       </c>
       <c r="E15" t="n">
-        <v>26548.25267851765</v>
+        <v>26548.25020376011</v>
       </c>
     </row>
     <row r="16">
@@ -3195,10 +3195,10 @@
         <v>15584.40514270092</v>
       </c>
       <c r="D16" t="n">
-        <v>16024.62932022892</v>
+        <v>16024.62910989384</v>
       </c>
       <c r="E16" t="n">
-        <v>20867.09527303692</v>
+        <v>20867.09274901598</v>
       </c>
     </row>
     <row r="17">
@@ -3212,10 +3212,10 @@
         <v>18119.77102449583</v>
       </c>
       <c r="D17" t="n">
-        <v>18617.90326452046</v>
+        <v>18617.90305080214</v>
       </c>
       <c r="E17" t="n">
-        <v>24097.35790479146</v>
+        <v>24097.35534017162</v>
       </c>
     </row>
     <row r="18">
@@ -3229,10 +3229,10 @@
         <v>23184.24045486865</v>
       </c>
       <c r="D18" t="n">
-        <v>23639.11407261823</v>
+        <v>23639.11385582399</v>
       </c>
       <c r="E18" t="n">
-        <v>28642.72386786357</v>
+        <v>28642.72126633277</v>
       </c>
     </row>
     <row r="19">
@@ -3246,10 +3246,10 @@
         <v>25235.29406207584</v>
       </c>
       <c r="D19" t="n">
-        <v>25740.42261869269</v>
+        <v>25740.42239935487</v>
       </c>
       <c r="E19" t="n">
-        <v>31296.83674147804</v>
+        <v>31296.83410942421</v>
       </c>
     </row>
     <row r="20">
@@ -3263,10 +3263,10 @@
         <v>16146.56093754155</v>
       </c>
       <c r="D20" t="n">
-        <v>16455.64628624347</v>
+        <v>16455.64606372402</v>
       </c>
       <c r="E20" t="n">
-        <v>19855.58512196461</v>
+        <v>19855.58245173119</v>
       </c>
     </row>
     <row r="21">
@@ -3280,10 +3280,10 @@
         <v>8224.40285616714</v>
       </c>
       <c r="D21" t="n">
-        <v>8561.051675403263</v>
+        <v>8561.051449335861</v>
       </c>
       <c r="E21" t="n">
-        <v>12264.18868700061</v>
+        <v>12264.18597419178</v>
       </c>
     </row>
   </sheetData>
@@ -3343,10 +3343,10 @@
         <v>27030.75485166851</v>
       </c>
       <c r="D2" t="n">
-        <v>26914.58783624501</v>
+        <v>26914.5877050517</v>
       </c>
       <c r="E2" t="n">
-        <v>25636.75066658651</v>
+        <v>25636.7490922668</v>
       </c>
     </row>
     <row r="3">
@@ -3360,10 +3360,10 @@
         <v>36911.28760734187</v>
       </c>
       <c r="D3" t="n">
-        <v>36515.52441243213</v>
+        <v>36515.52428697653</v>
       </c>
       <c r="E3" t="n">
-        <v>32162.12926842506</v>
+        <v>32162.12776295788</v>
       </c>
     </row>
     <row r="4">
@@ -3377,10 +3377,10 @@
         <v>23449.95451410332</v>
       </c>
       <c r="D4" t="n">
-        <v>23899.09571999888</v>
+        <v>23899.09559089612</v>
       </c>
       <c r="E4" t="n">
-        <v>28839.64898485009</v>
+        <v>28839.64743561699</v>
       </c>
     </row>
     <row r="5">
@@ -3394,10 +3394,10 @@
         <v>25985.32039589823</v>
       </c>
       <c r="D5" t="n">
-        <v>26477.98646358358</v>
+        <v>26477.98633266465</v>
       </c>
       <c r="E5" t="n">
-        <v>31897.31320812254</v>
+        <v>31897.31163709534</v>
       </c>
     </row>
     <row r="6">
@@ -3411,10 +3411,10 @@
         <v>31049.78982627104</v>
       </c>
       <c r="D6" t="n">
-        <v>31416.47627255988</v>
+        <v>31416.47614129055</v>
       </c>
       <c r="E6" t="n">
-        <v>35450.02718173711</v>
+        <v>35450.02560650513</v>
       </c>
     </row>
     <row r="7">
@@ -3428,10 +3428,10 @@
         <v>33100.84343347824</v>
       </c>
       <c r="D7" t="n">
-        <v>33487.18602617476</v>
+        <v>33487.18589322528</v>
       </c>
       <c r="E7" t="n">
-        <v>37736.95454583662</v>
+        <v>37736.95295044277</v>
       </c>
     </row>
     <row r="8">
@@ -3445,10 +3445,10 @@
         <v>24012.11030894395</v>
       </c>
       <c r="D8" t="n">
-        <v>24231.17227155272</v>
+        <v>24231.17213560314</v>
       </c>
       <c r="E8" t="n">
-        <v>26640.85386024922</v>
+        <v>26640.85222885423</v>
       </c>
     </row>
     <row r="9">
@@ -3462,10 +3462,10 @@
         <v>16089.95222756954</v>
       </c>
       <c r="D9" t="n">
-        <v>16449.51007192588</v>
+        <v>16449.50993192414</v>
       </c>
       <c r="E9" t="n">
-        <v>20404.64635984569</v>
+        <v>20404.64467982471</v>
       </c>
     </row>
     <row r="10">
@@ -3479,10 +3479,10 @@
         <v>22019.41356538294</v>
       </c>
       <c r="D10" t="n">
-        <v>22268.03506673695</v>
+        <v>22268.03491998932</v>
       </c>
       <c r="E10" t="n">
-        <v>25002.8715816311</v>
+        <v>25002.86982065958</v>
       </c>
     </row>
     <row r="11">
@@ -3496,10 +3496,10 @@
         <v>29245.17185939339</v>
       </c>
       <c r="D11" t="n">
-        <v>29066.35825351769</v>
+        <v>29066.3580977069</v>
       </c>
       <c r="E11" t="n">
-        <v>27099.40858888492</v>
+        <v>27099.40671915542</v>
       </c>
     </row>
     <row r="12">
@@ -3513,10 +3513,10 @@
         <v>31762.93829269388</v>
       </c>
       <c r="D12" t="n">
-        <v>31790.16084646314</v>
+        <v>31790.16067984895</v>
       </c>
       <c r="E12" t="n">
-        <v>32089.60893792493</v>
+        <v>32089.60693855475</v>
       </c>
     </row>
     <row r="13">
@@ -3530,10 +3530,10 @@
         <v>26423.45062859761</v>
       </c>
       <c r="D13" t="n">
-        <v>26354.79851611322</v>
+        <v>26354.79834348613</v>
       </c>
       <c r="E13" t="n">
-        <v>25599.62527878498</v>
+        <v>25599.62320725996</v>
       </c>
     </row>
     <row r="14">
@@ -3547,10 +3547,10 @@
         <v>19165.20548026611</v>
       </c>
       <c r="D14" t="n">
-        <v>19330.03568017406</v>
+        <v>19330.03549841272</v>
       </c>
       <c r="E14" t="n">
-        <v>21143.16787916162</v>
+        <v>21143.16569802548</v>
       </c>
     </row>
     <row r="15">
@@ -3564,10 +3564,10 @@
         <v>29045.73823593947</v>
       </c>
       <c r="D15" t="n">
-        <v>28837.61443948765</v>
+        <v>28837.61423325785</v>
       </c>
       <c r="E15" t="n">
-        <v>26548.25267851765</v>
+        <v>26548.25020376011</v>
       </c>
     </row>
     <row r="16">
@@ -3581,10 +3581,10 @@
         <v>15584.40514270092</v>
       </c>
       <c r="D16" t="n">
-        <v>16024.62932022892</v>
+        <v>16024.62910989384</v>
       </c>
       <c r="E16" t="n">
-        <v>20867.09527303692</v>
+        <v>20867.09274901598</v>
       </c>
     </row>
     <row r="17">
@@ -3598,10 +3598,10 @@
         <v>18119.77102449583</v>
       </c>
       <c r="D17" t="n">
-        <v>18617.90326452046</v>
+        <v>18617.90305080214</v>
       </c>
       <c r="E17" t="n">
-        <v>24097.35790479146</v>
+        <v>24097.35534017162</v>
       </c>
     </row>
     <row r="18">
@@ -3615,10 +3615,10 @@
         <v>23184.24045486865</v>
       </c>
       <c r="D18" t="n">
-        <v>23639.11407261823</v>
+        <v>23639.11385582399</v>
       </c>
       <c r="E18" t="n">
-        <v>28642.72386786357</v>
+        <v>28642.72126633277</v>
       </c>
     </row>
     <row r="19">
@@ -3632,10 +3632,10 @@
         <v>25235.29406207584</v>
       </c>
       <c r="D19" t="n">
-        <v>25740.42261869269</v>
+        <v>25740.42239935487</v>
       </c>
       <c r="E19" t="n">
-        <v>31296.83674147804</v>
+        <v>31296.83410942421</v>
       </c>
     </row>
     <row r="20">
@@ -3649,10 +3649,10 @@
         <v>16146.56093754155</v>
       </c>
       <c r="D20" t="n">
-        <v>16455.64628624347</v>
+        <v>16455.64606372402</v>
       </c>
       <c r="E20" t="n">
-        <v>19855.58512196461</v>
+        <v>19855.58245173119</v>
       </c>
     </row>
     <row r="21">
@@ -3666,10 +3666,10 @@
         <v>8224.40285616714</v>
       </c>
       <c r="D21" t="n">
-        <v>8561.051675403263</v>
+        <v>8561.051449335861</v>
       </c>
       <c r="E21" t="n">
-        <v>12264.18868700061</v>
+        <v>12264.18597419178</v>
       </c>
     </row>
   </sheetData>
@@ -3718,10 +3718,10 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>27448.35107259893</v>
+        <v>28815.03994740121</v>
       </c>
       <c r="C2" t="n">
-        <v>26788.38272541682</v>
+        <v>28041.18086065225</v>
       </c>
       <c r="D2" t="n">
         <v>19528.73090641369</v>
@@ -3732,10 +3732,10 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>28760.64103819128</v>
+        <v>32357.95701160237</v>
       </c>
       <c r="C3" t="n">
-        <v>28291.3803079093</v>
+        <v>31588.9199502028</v>
       </c>
       <c r="D3" t="n">
         <v>23129.5122748075</v>
@@ -3746,10 +3746,10 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>33616.16544799302</v>
+        <v>36754.26507941385</v>
       </c>
       <c r="C4" t="n">
-        <v>33159.93694951516</v>
+        <v>36036.52827831759</v>
       </c>
       <c r="D4" t="n">
         <v>28141.42346625876</v>
@@ -3760,10 +3760,10 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>27113.7284304881</v>
+        <v>32090.68528514105</v>
       </c>
       <c r="C5" t="n">
-        <v>26513.18591396782</v>
+        <v>31075.39636406636</v>
       </c>
       <c r="D5" t="n">
         <v>19907.21823224476</v>
@@ -3774,10 +3774,10 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>24378.62676467282</v>
+        <v>29129.60132644518</v>
       </c>
       <c r="C6" t="n">
-        <v>23780.76659791105</v>
+        <v>28135.82661286904</v>
       </c>
       <c r="D6" t="n">
         <v>17204.3047635316</v>
@@ -3788,10 +3788,10 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>36268.15957400724</v>
+        <v>34725.37679319532</v>
       </c>
       <c r="C7" t="n">
-        <v>35101.19546512196</v>
+        <v>33686.97791604436</v>
       </c>
       <c r="D7" t="n">
         <v>22264.59026738384</v>
@@ -3802,10 +3802,10 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>38478.85277175085</v>
+        <v>27128.17392221135</v>
       </c>
       <c r="C8" t="n">
-        <v>36495.86544778351</v>
+        <v>26091.0765023723</v>
       </c>
       <c r="D8" t="n">
         <v>14683.00488414276</v>
@@ -3816,10 +3816,10 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>45643.273945357</v>
+        <v>31201.48311182625</v>
       </c>
       <c r="C9" t="n">
-        <v>43372.02040114353</v>
+        <v>30133.71213707367</v>
       </c>
       <c r="D9" t="n">
         <v>18388.23141479537</v>
@@ -3830,10 +3830,10 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>52521.06460983431</v>
+        <v>35960.64707721958</v>
       </c>
       <c r="C10" t="n">
-        <v>50178.59561395412</v>
+        <v>34998.21287572395</v>
       </c>
       <c r="D10" t="n">
         <v>24411.43665927211</v>
@@ -3844,10 +3844,10 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>55100.67391466039</v>
+        <v>40134.12465603882</v>
       </c>
       <c r="C11" t="n">
-        <v>52850.23406557005</v>
+        <v>39130.89724516695</v>
       </c>
       <c r="D11" t="n">
         <v>28095.39572557634</v>
@@ -3858,10 +3858,10 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>47432.25152061765</v>
+        <v>33211.69411045477</v>
       </c>
       <c r="C12" t="n">
-        <v>45008.9964920925</v>
+        <v>31973.48553277652</v>
       </c>
       <c r="D12" t="n">
         <v>18353.19117831578</v>
@@ -3872,10 +3872,10 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>39124.34702996398</v>
+        <v>27181.36806664121</v>
       </c>
       <c r="C13" t="n">
-        <v>36739.49273790825</v>
+        <v>25791.76202152905</v>
       </c>
       <c r="D13" t="n">
         <v>10506.09552529524</v>
@@ -3886,10 +3886,10 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>42131.6981025629</v>
+        <v>31555.40801404243</v>
       </c>
       <c r="C14" t="n">
-        <v>39923.83669458709</v>
+        <v>30228.90411344332</v>
       </c>
       <c r="D14" t="n">
         <v>15637.36120685313</v>
@@ -3900,10 +3900,10 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>43443.98806815525</v>
+        <v>35098.32507824359</v>
       </c>
       <c r="C15" t="n">
-        <v>41642.23689952896</v>
+        <v>33992.04582544326</v>
       </c>
       <c r="D15" t="n">
         <v>21822.97404463966</v>
@@ -3914,10 +3914,10 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>48299.512477957</v>
+        <v>39494.63314605506</v>
       </c>
       <c r="C16" t="n">
-        <v>46506.62030055272</v>
+        <v>38435.48091297595</v>
       </c>
       <c r="D16" t="n">
         <v>26784.80634910569</v>
@@ -3928,10 +3928,10 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>41797.07546045207</v>
+        <v>34831.05335178227</v>
       </c>
       <c r="C17" t="n">
-        <v>39553.9707387247</v>
+        <v>33168.45047244405</v>
       </c>
       <c r="D17" t="n">
         <v>14879.81879972362</v>
@@ -3942,10 +3942,10 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>39061.97379463679</v>
+        <v>31869.96939308639</v>
       </c>
       <c r="C18" t="n">
-        <v>36753.62844230823</v>
+        <v>30160.95774088704</v>
       </c>
       <c r="D18" t="n">
         <v>11361.82956669415</v>
@@ -3956,10 +3956,10 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>50951.5066039712</v>
+        <v>37465.74485983654</v>
       </c>
       <c r="C19" t="n">
-        <v>48334.71623934732</v>
+        <v>35972.76797389054</v>
       </c>
       <c r="D19" t="n">
         <v>19550.02222848466</v>
@@ -3970,10 +3970,10 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>53162.19980171481</v>
+        <v>29868.54198885257</v>
       </c>
       <c r="C20" t="n">
-        <v>49686.3487542782</v>
+        <v>28333.82909248782</v>
       </c>
       <c r="D20" t="n">
         <v>11451.98723247558</v>
@@ -3984,10 +3984,10 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>60326.62097532096</v>
+        <v>33941.85117846746</v>
       </c>
       <c r="C21" t="n">
-        <v>56536.4252926759</v>
+        <v>32350.38631222686</v>
       </c>
       <c r="D21" t="n">
         <v>14844.27278358027</v>
@@ -3998,10 +3998,10 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>67204.41163979826</v>
+        <v>38701.01514386079</v>
       </c>
       <c r="C22" t="n">
-        <v>63434.9938195365</v>
+        <v>37306.88036492714</v>
       </c>
       <c r="D22" t="n">
         <v>21971.3977966571</v>
@@ -4012,10 +4012,10 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>69784.02094462435</v>
+        <v>42874.49272268004</v>
       </c>
       <c r="C23" t="n">
-        <v>66052.79419795889</v>
+        <v>41385.7266611766</v>
       </c>
       <c r="D23" t="n">
         <v>25009.29998463889</v>
@@ -4026,10 +4026,10 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>62115.59855058161</v>
+        <v>35952.06217709598</v>
       </c>
       <c r="C24" t="n">
-        <v>58101.81215623538</v>
+        <v>34118.57048054021</v>
       </c>
       <c r="D24" t="n">
         <v>13950.16181842678</v>
@@ -4040,10 +4040,10 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>53807.69405992794</v>
+        <v>29921.73613328243</v>
       </c>
       <c r="C25" t="n">
-        <v>49705.11545438826</v>
+        <v>27809.65402162987</v>
       </c>
       <c r="D25" t="n">
         <v>4576.750793451747</v>
@@ -4054,10 +4054,10 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>56815.04513252686</v>
+        <v>34295.77608068364</v>
       </c>
       <c r="C26" t="n">
-        <v>53066.02089316817</v>
+        <v>32423.35759564522</v>
       </c>
       <c r="D26" t="n">
         <v>11826.7542602226</v>
@@ -4068,10 +4068,10 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>58127.33509811921</v>
+        <v>37838.6931448848</v>
       </c>
       <c r="C27" t="n">
-        <v>54996.49101109192</v>
+        <v>36398.56922062704</v>
       </c>
       <c r="D27" t="n">
         <v>20557.20605379177</v>
@@ -4082,10 +4082,10 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>62982.85950792096</v>
+        <v>42235.00121269628</v>
       </c>
       <c r="C28" t="n">
-        <v>59847.63883253802</v>
+        <v>40828.76872858206</v>
       </c>
       <c r="D28" t="n">
         <v>25360.2114033258</v>
@@ -4096,10 +4096,10 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>56480.42249041603</v>
+        <v>37571.42141842348</v>
       </c>
       <c r="C29" t="n">
-        <v>52588.5482779502</v>
+        <v>35255.29729529037</v>
       </c>
       <c r="D29" t="n">
         <v>9777.931940826074</v>
@@ -4110,10 +4110,10 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>53745.32082460075</v>
+        <v>34610.33745972761</v>
       </c>
       <c r="C30" t="n">
-        <v>49727.55676014653</v>
+        <v>32187.15534234615</v>
       </c>
       <c r="D30" t="n">
         <v>5532.152051150172</v>
@@ -4124,10 +4124,10 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>65634.85363393516</v>
+        <v>40206.11292647775</v>
       </c>
       <c r="C31" t="n">
-        <v>61292.1415298332</v>
+        <v>37982.46254799724</v>
       </c>
       <c r="D31" t="n">
         <v>13522.3083847117</v>
@@ -4138,10 +4138,10 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>67845.54683167877</v>
+        <v>32608.91005549378</v>
       </c>
       <c r="C32" t="n">
-        <v>62766.03775651504</v>
+        <v>30465.78737834547</v>
       </c>
       <c r="D32" t="n">
         <v>6891.437929714051</v>
@@ -4152,10 +4152,10 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>75009.96800528493</v>
+        <v>36682.21924510867</v>
       </c>
       <c r="C33" t="n">
-        <v>69694.59750320169</v>
+        <v>34560.82780637345</v>
       </c>
       <c r="D33" t="n">
         <v>11225.52198028604</v>
@@ -4166,10 +4166,10 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>81887.75866976223</v>
+        <v>41441.383210502</v>
       </c>
       <c r="C34" t="n">
-        <v>76313.06693411461</v>
+        <v>39237.22276312606</v>
       </c>
       <c r="D34" t="n">
         <v>14991.45784199077</v>
@@ -4180,10 +4180,10 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>84467.3679745883</v>
+        <v>45614.86078932125</v>
       </c>
       <c r="C35" t="n">
-        <v>79081.72255044922</v>
+        <v>43466.92429728776</v>
       </c>
       <c r="D35" t="n">
         <v>19839.62288491949</v>
@@ -4194,10 +4194,10 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>76798.94558054558</v>
+        <v>38692.43024373719</v>
       </c>
       <c r="C36" t="n">
-        <v>71460.00143436041</v>
+        <v>36529.02904228606</v>
       </c>
       <c r="D36" t="n">
         <v>12731.61582632364</v>
@@ -4208,10 +4208,10 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>68491.04108989189</v>
+        <v>32662.10419992364</v>
       </c>
       <c r="C37" t="n">
-        <v>63460.77857724758</v>
+        <v>30617.58642811001</v>
       </c>
       <c r="D37" t="n">
         <v>8127.890938160099</v>
@@ -4222,10 +4222,10 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>71498.39216249081</v>
+        <v>37036.14414732485</v>
       </c>
       <c r="C38" t="n">
-        <v>66307.87271668091</v>
+        <v>34717.4787027788</v>
       </c>
       <c r="D38" t="n">
         <v>9212.158812772206</v>
@@ -4236,10 +4236,10 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>72810.68212808316</v>
+        <v>40579.06121152601</v>
       </c>
       <c r="C39" t="n">
-        <v>67592.42944729628</v>
+        <v>38046.77694045222</v>
       </c>
       <c r="D39" t="n">
         <v>10191.64995864061</v>

--- a/fcst_results/with_outlier_detection_series_HOU-Int_results.xlsx
+++ b/fcst_results/with_outlier_detection_series_HOU-Int_results.xlsx
@@ -1245,7 +1245,7 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>15954.04767759872</v>
+        <v>13374.90569937366</v>
       </c>
       <c r="S2" t="n">
         <v>7088.888399482897</v>
@@ -1334,7 +1334,7 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>15217.32741310358</v>
+        <v>14210.97318223926</v>
       </c>
       <c r="S3" t="n">
         <v>6568.608932987292</v>
@@ -1437,7 +1437,7 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>22761.86366997763</v>
+        <v>21042.18911577338</v>
       </c>
       <c r="S4" t="n">
         <v>10099.3278885907</v>

--- a/fcst_results/with_outlier_detection_series_HOU-Int_results.xlsx
+++ b/fcst_results/with_outlier_detection_series_HOU-Int_results.xlsx
@@ -1245,7 +1245,7 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>13374.90569937366</v>
+        <v>16216.01913230544</v>
       </c>
       <c r="S2" t="n">
         <v>7088.888399482897</v>
@@ -1334,7 +1334,7 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>14210.97318223926</v>
+        <v>10168.53582315299</v>
       </c>
       <c r="S3" t="n">
         <v>6568.608932987292</v>
@@ -1437,7 +1437,7 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>21042.18911577338</v>
+        <v>20540.90820105031</v>
       </c>
       <c r="S4" t="n">
         <v>10099.3278885907</v>

--- a/fcst_results/with_outlier_detection_series_HOU-Int_results.xlsx
+++ b/fcst_results/with_outlier_detection_series_HOU-Int_results.xlsx
@@ -1245,7 +1245,7 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>16216.01913230544</v>
+        <v>13683.00322419787</v>
       </c>
       <c r="S2" t="n">
         <v>7088.888399482897</v>
@@ -1334,7 +1334,7 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>10168.53582315299</v>
+        <v>13714.32705434476</v>
       </c>
       <c r="S3" t="n">
         <v>6568.608932987292</v>
@@ -1437,7 +1437,7 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>20540.90820105031</v>
+        <v>22800.25191826188</v>
       </c>
       <c r="S4" t="n">
         <v>10099.3278885907</v>
